--- a/file/ABSENSI.xlsx
+++ b/file/ABSENSI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOCUMENT\Semester 6\MANPRO\kelompok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SiTiOne\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="31">
   <si>
     <t>NO</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>18 Maret</t>
+  </si>
+  <si>
+    <t>9 Mei</t>
   </si>
 </sst>
 </file>
@@ -491,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="A4:N18"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +563,9 @@
       <c r="N4" s="7">
         <v>42489</v>
       </c>
-      <c r="O4" s="4"/>
+      <c r="O4" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -610,7 +615,9 @@
       <c r="N5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="1"/>
+      <c r="O5" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -660,7 +667,9 @@
       <c r="N6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -710,7 +719,9 @@
       <c r="N7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -760,7 +771,9 @@
       <c r="N8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -810,7 +823,9 @@
       <c r="N9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="1"/>
+      <c r="O9" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -860,7 +875,9 @@
       <c r="N10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -910,7 +927,9 @@
       <c r="N11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="1"/>
+      <c r="O11" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -960,7 +979,9 @@
       <c r="N12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="1"/>
+      <c r="O12" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1010,7 +1031,9 @@
       <c r="N13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O13" s="1"/>
+      <c r="O13" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1060,7 +1083,9 @@
       <c r="N14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O14" s="1"/>
+      <c r="O14" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1110,7 +1135,9 @@
       <c r="N15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="1"/>
+      <c r="O15" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1160,7 +1187,9 @@
       <c r="N16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O16" s="1"/>
+      <c r="O16" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1210,7 +1239,9 @@
       <c r="N17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O17" s="1"/>
+      <c r="O17" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1260,7 +1291,9 @@
       <c r="N18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O18" s="1"/>
+      <c r="O18" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
